--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3569930.745866427</v>
+        <v>3565962.919351048</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5948115.484334204</v>
+        <v>5948115.484334203</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552067.7542869428</v>
+        <v>552067.7542869424</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776584</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>41.73145546343073</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>185.0333587736945</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>25.06485607370357</v>
+        <v>84.56713651463161</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>237.5752781578165</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>154.9931047012513</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>113.7878479450401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>18.40882703545771</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>175.5161857099191</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C11" t="n">
         <v>310.138540825715</v>
@@ -1378,7 +1378,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E11" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F11" t="n">
         <v>351.7416947964189</v>
@@ -1390,7 +1390,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I11" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828938</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.21758486773695</v>
+        <v>63.21758486773697</v>
       </c>
       <c r="T11" t="n">
         <v>150.5440655703582</v>
       </c>
       <c r="U11" t="n">
-        <v>195.8929936486944</v>
+        <v>195.892993648694</v>
       </c>
       <c r="V11" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W11" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X11" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y11" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C13" t="n">
-        <v>112.1124701533362</v>
+        <v>112.1124701533353</v>
       </c>
       <c r="D13" t="n">
-        <v>93.4811220729198</v>
+        <v>93.48112207291985</v>
       </c>
       <c r="E13" t="n">
-        <v>91.29961170127662</v>
+        <v>91.29961170127666</v>
       </c>
       <c r="F13" t="n">
-        <v>90.28669707763869</v>
+        <v>90.28669707763875</v>
       </c>
       <c r="G13" t="n">
         <v>111.0718515201906</v>
       </c>
       <c r="H13" t="n">
-        <v>91.22453245914546</v>
+        <v>91.22453245914551</v>
       </c>
       <c r="I13" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684396</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589985</v>
       </c>
       <c r="S13" t="n">
         <v>137.7784534204589</v>
@@ -1584,19 +1584,19 @@
         <v>165.1853735766385</v>
       </c>
       <c r="U13" t="n">
-        <v>231.0873269443087</v>
+        <v>231.0873269443088</v>
       </c>
       <c r="V13" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W13" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X13" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.4503024068022</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>327.5994907181883</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C14" t="n">
         <v>310.138540825715</v>
@@ -1615,7 +1615,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E14" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F14" t="n">
         <v>351.7416947964189</v>
@@ -1627,7 +1627,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I14" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828526</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.21758486773695</v>
+        <v>63.21758486773697</v>
       </c>
       <c r="T14" t="n">
         <v>150.5440655703582</v>
       </c>
       <c r="U14" t="n">
-        <v>195.8929936486939</v>
+        <v>195.8929936486949</v>
       </c>
       <c r="V14" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W14" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X14" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y14" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C16" t="n">
         <v>112.1124701533353</v>
       </c>
       <c r="D16" t="n">
-        <v>93.4811220729198</v>
+        <v>93.48112207291985</v>
       </c>
       <c r="E16" t="n">
-        <v>91.29961170127662</v>
+        <v>91.29961170127666</v>
       </c>
       <c r="F16" t="n">
-        <v>90.28669707763972</v>
+        <v>90.28669707763873</v>
       </c>
       <c r="G16" t="n">
         <v>111.0718515201906</v>
       </c>
       <c r="H16" t="n">
-        <v>91.22453245914546</v>
+        <v>91.22453245914551</v>
       </c>
       <c r="I16" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684395</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589985</v>
       </c>
       <c r="S16" t="n">
         <v>137.7784534204589</v>
@@ -1821,19 +1821,19 @@
         <v>165.1853735766385</v>
       </c>
       <c r="U16" t="n">
-        <v>231.0873269443087</v>
+        <v>231.0873269443088</v>
       </c>
       <c r="V16" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W16" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X16" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.4503024068022</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C17" t="n">
         <v>310.138540825715</v>
       </c>
       <c r="D17" t="n">
-        <v>299.5486906753904</v>
+        <v>299.5486906753906</v>
       </c>
       <c r="E17" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F17" t="n">
         <v>351.7416947964189</v>
@@ -1864,7 +1864,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I17" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828526</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.21758486773695</v>
+        <v>63.21758486773697</v>
       </c>
       <c r="T17" t="n">
         <v>150.5440655703582</v>
       </c>
       <c r="U17" t="n">
-        <v>195.8929936486949</v>
+        <v>195.892993648694</v>
       </c>
       <c r="V17" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W17" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X17" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C19" t="n">
         <v>112.1124701533353</v>
       </c>
       <c r="D19" t="n">
-        <v>93.4811220729198</v>
+        <v>93.48112207291985</v>
       </c>
       <c r="E19" t="n">
-        <v>91.29961170127662</v>
+        <v>91.29961170127666</v>
       </c>
       <c r="F19" t="n">
-        <v>90.28669707763869</v>
+        <v>90.28669707763873</v>
       </c>
       <c r="G19" t="n">
         <v>111.0718515201906</v>
       </c>
       <c r="H19" t="n">
-        <v>91.22453245914546</v>
+        <v>91.22453245914551</v>
       </c>
       <c r="I19" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684396</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589985</v>
       </c>
       <c r="S19" t="n">
         <v>137.7784534204589</v>
@@ -2058,19 +2058,19 @@
         <v>165.1853735766385</v>
       </c>
       <c r="U19" t="n">
-        <v>231.0873269443087</v>
+        <v>231.0873269443088</v>
       </c>
       <c r="V19" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W19" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X19" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y19" t="n">
-        <v>163.4503024068032</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C20" t="n">
         <v>310.138540825715</v>
@@ -2089,19 +2089,19 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E20" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F20" t="n">
         <v>351.7416947964189</v>
       </c>
       <c r="G20" t="n">
-        <v>356.1895326467176</v>
+        <v>356.1895326467173</v>
       </c>
       <c r="H20" t="n">
         <v>243.5920134302685</v>
       </c>
       <c r="I20" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828938</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.21758486773695</v>
+        <v>63.21758486773697</v>
       </c>
       <c r="T20" t="n">
         <v>150.5440655703582</v>
       </c>
       <c r="U20" t="n">
-        <v>195.8929936486939</v>
+        <v>195.892993648694</v>
       </c>
       <c r="V20" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W20" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X20" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y20" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C22" t="n">
         <v>112.1124701533353</v>
       </c>
       <c r="D22" t="n">
-        <v>93.4811220729198</v>
+        <v>93.48112207291985</v>
       </c>
       <c r="E22" t="n">
-        <v>91.29961170127662</v>
+        <v>91.29961170127666</v>
       </c>
       <c r="F22" t="n">
-        <v>90.28669707763869</v>
+        <v>90.28669707763873</v>
       </c>
       <c r="G22" t="n">
-        <v>111.0718515201902</v>
+        <v>111.0718515201906</v>
       </c>
       <c r="H22" t="n">
-        <v>91.22453245914545</v>
+        <v>91.22453245914551</v>
       </c>
       <c r="I22" t="n">
-        <v>46.64301523684391</v>
+        <v>46.64301523684395</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.90898122590022</v>
+        <v>41.90898122589985</v>
       </c>
       <c r="S22" t="n">
         <v>137.7784534204589</v>
@@ -2298,16 +2298,16 @@
         <v>231.0873269443088</v>
       </c>
       <c r="V22" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W22" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X22" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.4503024068022</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C23" t="n">
         <v>310.138540825715</v>
@@ -2326,7 +2326,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E23" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F23" t="n">
         <v>351.7416947964189</v>
@@ -2338,7 +2338,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I23" t="n">
-        <v>1.946772753828727</v>
+        <v>1.946772753828526</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.21758486773695</v>
+        <v>63.21758486773697</v>
       </c>
       <c r="T23" t="n">
-        <v>150.5440655703582</v>
+        <v>150.544065570358</v>
       </c>
       <c r="U23" t="n">
-        <v>195.8929936486939</v>
+        <v>195.8929936486949</v>
       </c>
       <c r="V23" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W23" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X23" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y23" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C25" t="n">
         <v>112.1124701533353</v>
       </c>
       <c r="D25" t="n">
-        <v>93.4811220729198</v>
+        <v>93.48112207291985</v>
       </c>
       <c r="E25" t="n">
-        <v>91.29961170127662</v>
+        <v>91.29961170127666</v>
       </c>
       <c r="F25" t="n">
-        <v>90.28669707763869</v>
+        <v>90.28669707763873</v>
       </c>
       <c r="G25" t="n">
         <v>111.0718515201906</v>
       </c>
       <c r="H25" t="n">
-        <v>91.22453245914546</v>
+        <v>91.22453245914551</v>
       </c>
       <c r="I25" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684396</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589977</v>
       </c>
       <c r="S25" t="n">
         <v>137.7784534204589</v>
@@ -2532,19 +2532,19 @@
         <v>165.1853735766385</v>
       </c>
       <c r="U25" t="n">
-        <v>231.0873269443087</v>
+        <v>231.0873269443088</v>
       </c>
       <c r="V25" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W25" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X25" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y25" t="n">
-        <v>163.4503024068032</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.3519358130296</v>
+        <v>118.3519358130295</v>
       </c>
       <c r="T26" t="n">
         <v>205.6784165156507</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0273445939875</v>
+        <v>251.0273445939865</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2062024654831</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.7773661821365</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>192.9128043657514</v>
       </c>
       <c r="T28" t="n">
-        <v>135.37606102974</v>
+        <v>220.3197245219311</v>
       </c>
       <c r="U28" t="n">
         <v>286.2216778896013</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>23.24070834515543</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.3519358130296</v>
+        <v>118.3519358130294</v>
       </c>
       <c r="T29" t="n">
-        <v>205.6784165156507</v>
+        <v>205.6784165156505</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0273445939866</v>
+        <v>251.0273445939865</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174115</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2062024654831</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>101.7773661821365</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.04333217119236</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.53454407307146</v>
+        <v>192.9128043657514</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3197245219311</v>
       </c>
       <c r="U31" t="n">
         <v>286.2216778896013</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.65164050416153</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I32" t="n">
-        <v>57.08112369912104</v>
+        <v>57.08112369912098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.3519358130295</v>
+        <v>118.3519358130294</v>
       </c>
       <c r="T32" t="n">
         <v>205.6784165156507</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0273445939865</v>
+        <v>251.0273445939864</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>138.8203416599663</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2062024654831</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S34" t="n">
-        <v>192.9128043657514</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.3197245219311</v>
       </c>
       <c r="U34" t="n">
-        <v>65.7734807308382</v>
+        <v>286.2216778896013</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.3238835920099</v>
+        <v>411.3238835920098</v>
       </c>
       <c r="H35" t="n">
-        <v>298.7263643755611</v>
+        <v>298.726364375561</v>
       </c>
       <c r="I35" t="n">
-        <v>57.0811236991211</v>
+        <v>57.08112369912097</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.3519358130295</v>
+        <v>118.3519358130294</v>
       </c>
       <c r="T35" t="n">
-        <v>205.6784165156508</v>
+        <v>205.6784165156507</v>
       </c>
       <c r="U35" t="n">
         <v>251.0273445939875</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2062024654831</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>52.65183660461825</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2216778896013</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.5823463276335</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.3238835920099</v>
+        <v>411.3238835920098</v>
       </c>
       <c r="H38" t="n">
-        <v>298.7263643755611</v>
+        <v>298.726364375561</v>
       </c>
       <c r="I38" t="n">
-        <v>57.0811236991211</v>
+        <v>57.08112369912098</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.3519358130295</v>
+        <v>118.3519358130294</v>
       </c>
       <c r="T38" t="n">
-        <v>205.6784165156505</v>
+        <v>205.6784165156507</v>
       </c>
       <c r="U38" t="n">
         <v>251.0273445939875</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.358883404438</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>101.7773661821365</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S40" t="n">
         <v>192.9128043657514</v>
       </c>
       <c r="T40" t="n">
-        <v>48.5550052380116</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2216778896013</v>
+        <v>214.1541252334005</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206838</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I41" t="n">
-        <v>57.08112369912104</v>
+        <v>57.08112369912098</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>118.3519358130295</v>
+        <v>118.3519358130296</v>
       </c>
       <c r="T41" t="n">
         <v>205.6784165156507</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0273445939865</v>
+        <v>251.0273445939864</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.2062024654831</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.358883404438</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.04333217119236</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.5063352504896</v>
+        <v>220.3197245219311</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2216778896013</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>53.77979079568392</v>
       </c>
     </row>
     <row r="44">
@@ -4030,10 +4030,10 @@
         <v>118.3519358130295</v>
       </c>
       <c r="T44" t="n">
-        <v>205.6784165156507</v>
+        <v>205.6784165156505</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0273445939875</v>
+        <v>251.0273445939866</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2062024654831</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>146.358883404438</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.7773661821365</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.45409108428036</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.9128043657514</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.3197245219311</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2216778896013</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>57.65164050416151</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.7059962668447</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="C2" t="n">
-        <v>533.7059962668447</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="D2" t="n">
-        <v>533.7059962668447</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.0360370837851</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>122.296149021135</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>302.372000605791</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686951</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759345</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185825</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424064</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="V2" t="n">
-        <v>777.1547729109448</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="W2" t="n">
-        <v>777.1547729109448</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="X2" t="n">
-        <v>777.1547729109448</v>
+        <v>517.4848137278844</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.1547729109448</v>
+        <v>517.4848137278844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>219.0522088294242</v>
+        <v>588.0815197256115</v>
       </c>
       <c r="C3" t="n">
-        <v>44.59917954829714</v>
+        <v>413.6284904444846</v>
       </c>
       <c r="D3" t="n">
-        <v>44.59917954829714</v>
+        <v>264.6940807832333</v>
       </c>
       <c r="E3" t="n">
-        <v>44.59917954829714</v>
+        <v>105.4566257777778</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299838</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299838</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299838</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299838</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.8108274061897</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950715</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>712.0191193839532</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973041</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="W3" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="X3" t="n">
-        <v>426.8125075943781</v>
+        <v>964.0571555106335</v>
       </c>
       <c r="Y3" t="n">
-        <v>219.0522088294242</v>
+        <v>756.2968567456796</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021267</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792565</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014782</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>129.4741569655841</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.3006591534979</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C6" t="n">
-        <v>305.3006591534979</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4658,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>473.515996173566</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>784.1002736601483</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>784.1002736601483</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>540.6514970160482</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>540.6514970160482</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>540.6514970160482</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.9696854242497</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>584.5814843947364</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>584.5814843947364</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>584.5814843947364</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>376.7299841892036</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>168.9696854242497</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1988.195056901902</v>
+        <v>1988.195056901903</v>
       </c>
       <c r="C11" t="n">
-        <v>1674.923803542594</v>
+        <v>1674.923803542595</v>
       </c>
       <c r="D11" t="n">
-        <v>1372.349368516947</v>
+        <v>1372.349368516948</v>
       </c>
       <c r="E11" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F11" t="n">
-        <v>686.9577382913026</v>
+        <v>686.9577382913031</v>
       </c>
       <c r="G11" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774472</v>
       </c>
       <c r="H11" t="n">
-        <v>81.11779275899363</v>
+        <v>81.11779275899411</v>
       </c>
       <c r="I11" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J11" t="n">
         <v>401.6448097991182</v>
@@ -5047,46 +5047,46 @@
         <v>684.8197455910891</v>
       </c>
       <c r="L11" t="n">
-        <v>1486.509657744594</v>
+        <v>1073.025055339648</v>
       </c>
       <c r="M11" t="n">
-        <v>1950.132301439265</v>
+        <v>1536.647699034319</v>
       </c>
       <c r="N11" t="n">
-        <v>2858.844107758164</v>
+        <v>2012.386050185354</v>
       </c>
       <c r="O11" t="n">
-        <v>3380.746173973441</v>
+        <v>2786.914356456115</v>
       </c>
       <c r="P11" t="n">
-        <v>3718.268034211406</v>
+        <v>3443.016937783848</v>
       </c>
       <c r="Q11" t="n">
-        <v>3923.56014821068</v>
+        <v>3858.500892536428</v>
       </c>
       <c r="R11" t="n">
-        <v>3957.567781695718</v>
+        <v>3957.567781695719</v>
       </c>
       <c r="S11" t="n">
-        <v>3893.711635364671</v>
+        <v>3893.711635364672</v>
       </c>
       <c r="T11" t="n">
-        <v>3741.646922667339</v>
+        <v>3741.64692266734</v>
       </c>
       <c r="U11" t="n">
-        <v>3543.775211911082</v>
+        <v>3543.775211911083</v>
       </c>
       <c r="V11" t="n">
-        <v>3268.403588148615</v>
+        <v>3268.403588148616</v>
       </c>
       <c r="W11" t="n">
-        <v>2971.326196459604</v>
+        <v>2971.326196459605</v>
       </c>
       <c r="X11" t="n">
-        <v>2653.551701779628</v>
+        <v>2653.551701779629</v>
       </c>
       <c r="Y11" t="n">
-        <v>2319.10363338492</v>
+        <v>2319.103633384921</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>188.0148448853821</v>
       </c>
       <c r="H12" t="n">
-        <v>95.41383669201831</v>
+        <v>95.41383669201832</v>
       </c>
       <c r="I12" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J12" t="n">
-        <v>152.7027429633661</v>
+        <v>277.5328679503709</v>
       </c>
       <c r="K12" t="n">
-        <v>356.5686037269345</v>
+        <v>481.3987287139392</v>
       </c>
       <c r="L12" t="n">
-        <v>1010.077149880904</v>
+        <v>801.8440782755486</v>
       </c>
       <c r="M12" t="n">
-        <v>1403.37862656088</v>
+        <v>1195.145554955525</v>
       </c>
       <c r="N12" t="n">
-        <v>1821.498267939254</v>
+        <v>1613.265196333899</v>
       </c>
       <c r="O12" t="n">
-        <v>2181.776258299385</v>
+        <v>1973.543186694029</v>
       </c>
       <c r="P12" t="n">
-        <v>2451.59804198881</v>
+        <v>2243.364970383454</v>
       </c>
       <c r="Q12" t="n">
-        <v>2582.047562384652</v>
+        <v>2550.348623557724</v>
       </c>
       <c r="R12" t="n">
         <v>2582.047562384652</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.6961033322491</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C13" t="n">
-        <v>608.4511839854448</v>
+        <v>608.451183985445</v>
       </c>
       <c r="D13" t="n">
-        <v>514.0258081542127</v>
+        <v>514.0258081542129</v>
       </c>
       <c r="E13" t="n">
-        <v>421.8039781529232</v>
+        <v>421.8039781529233</v>
       </c>
       <c r="F13" t="n">
-        <v>330.6052942361164</v>
+        <v>330.6052942361165</v>
       </c>
       <c r="G13" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217825</v>
       </c>
       <c r="H13" t="n">
-        <v>126.2655124388072</v>
+        <v>126.2655124388073</v>
       </c>
       <c r="I13" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J13" t="n">
         <v>166.2306638242915</v>
@@ -5208,43 +5208,43 @@
         <v>748.6432167956289</v>
       </c>
       <c r="M13" t="n">
-        <v>1119.388434113901</v>
+        <v>1119.3884341139</v>
       </c>
       <c r="N13" t="n">
         <v>1488.050637160306</v>
       </c>
       <c r="O13" t="n">
-        <v>1816.720321418912</v>
+        <v>1816.720321418911</v>
       </c>
       <c r="P13" t="n">
         <v>2082.311148584326</v>
       </c>
       <c r="Q13" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R13" t="n">
         <v>2157.21764858319</v>
       </c>
       <c r="S13" t="n">
-        <v>2018.04749361303</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T13" t="n">
-        <v>1851.193580909355</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U13" t="n">
-        <v>1617.772038541366</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V13" t="n">
-        <v>1418.778813916583</v>
+        <v>1418.778813916582</v>
       </c>
       <c r="W13" t="n">
         <v>1185.052907460725</v>
       </c>
       <c r="X13" t="n">
-        <v>1012.754620143812</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.6533045813852</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="14">
@@ -5263,52 +5263,52 @@
         <v>1372.349368516947</v>
       </c>
       <c r="E14" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F14" t="n">
-        <v>686.9577382913026</v>
+        <v>686.9577382913028</v>
       </c>
       <c r="G14" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774467</v>
       </c>
       <c r="H14" t="n">
-        <v>81.11779275899363</v>
+        <v>81.1177927589937</v>
       </c>
       <c r="I14" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J14" t="n">
-        <v>234.2391607787652</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K14" t="n">
-        <v>517.4140965707361</v>
+        <v>1005.723704036542</v>
       </c>
       <c r="L14" t="n">
-        <v>905.6194063192954</v>
+        <v>1393.929013785101</v>
       </c>
       <c r="M14" t="n">
-        <v>1814.26044817187</v>
+        <v>1857.551657479772</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.972254490769</v>
+        <v>2333.290008630807</v>
       </c>
       <c r="O14" t="n">
-        <v>3158.863227883863</v>
+        <v>2997.106197209421</v>
       </c>
       <c r="P14" t="n">
-        <v>3496.385088121828</v>
+        <v>3653.208778537154</v>
       </c>
       <c r="Q14" t="n">
-        <v>3911.869042874408</v>
+        <v>3858.500892536428</v>
       </c>
       <c r="R14" t="n">
-        <v>3957.567781695718</v>
+        <v>3957.567781695719</v>
       </c>
       <c r="S14" t="n">
-        <v>3893.711635364671</v>
+        <v>3893.711635364672</v>
       </c>
       <c r="T14" t="n">
-        <v>3741.646922667339</v>
+        <v>3741.64692266734</v>
       </c>
       <c r="U14" t="n">
         <v>3543.775211911083</v>
@@ -5351,34 +5351,34 @@
         <v>188.0148448853821</v>
       </c>
       <c r="H15" t="n">
-        <v>95.41383669201831</v>
+        <v>95.41383669201832</v>
       </c>
       <c r="I15" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J15" t="n">
-        <v>152.7027429633661</v>
+        <v>277.5328679503709</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5686037269345</v>
+        <v>657.9328614923666</v>
       </c>
       <c r="L15" t="n">
-        <v>1010.077149880904</v>
+        <v>978.3782110539757</v>
       </c>
       <c r="M15" t="n">
-        <v>1403.37862656088</v>
+        <v>1371.679687733952</v>
       </c>
       <c r="N15" t="n">
-        <v>1821.498267939254</v>
+        <v>1789.799329112326</v>
       </c>
       <c r="O15" t="n">
-        <v>2181.776258299385</v>
+        <v>2150.077319472457</v>
       </c>
       <c r="P15" t="n">
-        <v>2451.59804198881</v>
+        <v>2419.899103161882</v>
       </c>
       <c r="Q15" t="n">
-        <v>2582.047562384652</v>
+        <v>2550.348623557724</v>
       </c>
       <c r="R15" t="n">
         <v>2582.047562384652</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.6961033322491</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C16" t="n">
-        <v>608.4511839854458</v>
+        <v>608.451183985445</v>
       </c>
       <c r="D16" t="n">
-        <v>514.0258081542137</v>
+        <v>514.0258081542129</v>
       </c>
       <c r="E16" t="n">
-        <v>421.8039781529242</v>
+        <v>421.8039781529233</v>
       </c>
       <c r="F16" t="n">
-        <v>330.6052942361164</v>
+        <v>330.6052942361165</v>
       </c>
       <c r="G16" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217825</v>
       </c>
       <c r="H16" t="n">
-        <v>126.2655124388072</v>
+        <v>126.2655124388073</v>
       </c>
       <c r="I16" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J16" t="n">
         <v>166.2306638242915</v>
@@ -5445,43 +5445,43 @@
         <v>748.6432167956289</v>
       </c>
       <c r="M16" t="n">
-        <v>1119.388434113901</v>
+        <v>1119.3884341139</v>
       </c>
       <c r="N16" t="n">
         <v>1488.050637160306</v>
       </c>
       <c r="O16" t="n">
-        <v>1816.720321418912</v>
+        <v>1816.720321418911</v>
       </c>
       <c r="P16" t="n">
         <v>2082.311148584326</v>
       </c>
       <c r="Q16" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R16" t="n">
         <v>2157.21764858319</v>
       </c>
       <c r="S16" t="n">
-        <v>2018.04749361303</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T16" t="n">
-        <v>1851.193580909355</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.772038541366</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V16" t="n">
-        <v>1418.778813916583</v>
+        <v>1418.778813916582</v>
       </c>
       <c r="W16" t="n">
         <v>1185.052907460725</v>
       </c>
       <c r="X16" t="n">
-        <v>1012.754620143812</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y16" t="n">
-        <v>847.6533045813852</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1988.195056901902</v>
+        <v>1988.195056901903</v>
       </c>
       <c r="C17" t="n">
-        <v>1674.923803542594</v>
+        <v>1674.923803542595</v>
       </c>
       <c r="D17" t="n">
-        <v>1372.349368516947</v>
+        <v>1372.349368516948</v>
       </c>
       <c r="E17" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F17" t="n">
-        <v>686.9577382913021</v>
+        <v>686.9577382913028</v>
       </c>
       <c r="G17" t="n">
-        <v>327.1703315774462</v>
+        <v>327.1703315774468</v>
       </c>
       <c r="H17" t="n">
-        <v>81.11779275899363</v>
+        <v>81.1177927589937</v>
       </c>
       <c r="I17" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J17" t="n">
-        <v>234.2391607787652</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K17" t="n">
-        <v>517.4140965707361</v>
+        <v>1005.723704036542</v>
       </c>
       <c r="L17" t="n">
-        <v>905.6194063192954</v>
+        <v>1411.662388217316</v>
       </c>
       <c r="M17" t="n">
-        <v>1814.26044817187</v>
+        <v>1875.285031911987</v>
       </c>
       <c r="N17" t="n">
-        <v>2722.972254490769</v>
+        <v>2351.023383063021</v>
       </c>
       <c r="O17" t="n">
-        <v>3170.554333220135</v>
+        <v>2786.914356456115</v>
       </c>
       <c r="P17" t="n">
-        <v>3508.0761934581</v>
+        <v>3443.016937783848</v>
       </c>
       <c r="Q17" t="n">
-        <v>3923.56014821068</v>
+        <v>3858.500892536428</v>
       </c>
       <c r="R17" t="n">
-        <v>3957.567781695718</v>
+        <v>3957.567781695719</v>
       </c>
       <c r="S17" t="n">
-        <v>3893.711635364671</v>
+        <v>3893.711635364672</v>
       </c>
       <c r="T17" t="n">
-        <v>3741.646922667339</v>
+        <v>3741.64692266734</v>
       </c>
       <c r="U17" t="n">
-        <v>3543.775211911082</v>
+        <v>3543.775211911083</v>
       </c>
       <c r="V17" t="n">
-        <v>3268.403588148615</v>
+        <v>3268.403588148616</v>
       </c>
       <c r="W17" t="n">
-        <v>2971.326196459604</v>
+        <v>2971.326196459605</v>
       </c>
       <c r="X17" t="n">
-        <v>2653.551701779628</v>
+        <v>2653.551701779629</v>
       </c>
       <c r="Y17" t="n">
-        <v>2319.10363338492</v>
+        <v>2319.103633384921</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>188.0148448853821</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41383669201831</v>
+        <v>95.41383669201832</v>
       </c>
       <c r="I18" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J18" t="n">
-        <v>152.7027429633661</v>
+        <v>277.5328679503709</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5686037269345</v>
+        <v>481.3987287139392</v>
       </c>
       <c r="L18" t="n">
-        <v>677.0139532885437</v>
+        <v>801.8440782755486</v>
       </c>
       <c r="M18" t="n">
-        <v>1070.31542996852</v>
+        <v>1195.145554955525</v>
       </c>
       <c r="N18" t="n">
-        <v>1488.435071346894</v>
+        <v>1613.265196333899</v>
       </c>
       <c r="O18" t="n">
-        <v>2181.776258299385</v>
+        <v>2150.077319472457</v>
       </c>
       <c r="P18" t="n">
-        <v>2451.59804198881</v>
+        <v>2419.899103161882</v>
       </c>
       <c r="Q18" t="n">
-        <v>2582.047562384652</v>
+        <v>2550.348623557724</v>
       </c>
       <c r="R18" t="n">
         <v>2582.047562384652</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.6961033322481</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C19" t="n">
-        <v>608.4511839854448</v>
+        <v>608.451183985445</v>
       </c>
       <c r="D19" t="n">
-        <v>514.0258081542127</v>
+        <v>514.0258081542129</v>
       </c>
       <c r="E19" t="n">
-        <v>421.8039781529232</v>
+        <v>421.8039781529233</v>
       </c>
       <c r="F19" t="n">
-        <v>330.6052942361164</v>
+        <v>330.6052942361165</v>
       </c>
       <c r="G19" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217825</v>
       </c>
       <c r="H19" t="n">
-        <v>126.2655124388072</v>
+        <v>126.2655124388073</v>
       </c>
       <c r="I19" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J19" t="n">
         <v>166.2306638242915</v>
@@ -5682,43 +5682,43 @@
         <v>748.6432167956289</v>
       </c>
       <c r="M19" t="n">
-        <v>1119.388434113901</v>
+        <v>1119.3884341139</v>
       </c>
       <c r="N19" t="n">
         <v>1488.050637160306</v>
       </c>
       <c r="O19" t="n">
-        <v>1816.720321418912</v>
+        <v>1816.720321418911</v>
       </c>
       <c r="P19" t="n">
         <v>2082.311148584326</v>
       </c>
       <c r="Q19" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R19" t="n">
         <v>2157.21764858319</v>
       </c>
       <c r="S19" t="n">
-        <v>2018.04749361303</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T19" t="n">
-        <v>1851.193580909355</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U19" t="n">
-        <v>1617.772038541366</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V19" t="n">
-        <v>1418.778813916583</v>
+        <v>1418.778813916582</v>
       </c>
       <c r="W19" t="n">
         <v>1185.052907460725</v>
       </c>
       <c r="X19" t="n">
-        <v>1012.754620143812</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.6533045813842</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="20">
@@ -5728,61 +5728,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1988.195056901902</v>
+        <v>1988.195056901903</v>
       </c>
       <c r="C20" t="n">
-        <v>1674.923803542594</v>
+        <v>1674.923803542595</v>
       </c>
       <c r="D20" t="n">
-        <v>1372.349368516947</v>
+        <v>1372.349368516948</v>
       </c>
       <c r="E20" t="n">
         <v>1042.252379499807</v>
       </c>
       <c r="F20" t="n">
-        <v>686.9577382913028</v>
+        <v>686.9577382913031</v>
       </c>
       <c r="G20" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774472</v>
       </c>
       <c r="H20" t="n">
-        <v>81.11779275899363</v>
+        <v>81.11779275899411</v>
       </c>
       <c r="I20" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J20" t="n">
-        <v>234.2391607787652</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K20" t="n">
-        <v>838.3180550161892</v>
+        <v>909.0643443906604</v>
       </c>
       <c r="L20" t="n">
-        <v>1309.921305194756</v>
+        <v>1297.26965413922</v>
       </c>
       <c r="M20" t="n">
-        <v>1773.543948889427</v>
+        <v>1760.892297833891</v>
       </c>
       <c r="N20" t="n">
-        <v>2249.282300040461</v>
+        <v>2669.604104152789</v>
       </c>
       <c r="O20" t="n">
-        <v>3062.165452883673</v>
+        <v>3105.495077545883</v>
       </c>
       <c r="P20" t="n">
-        <v>3718.268034211406</v>
+        <v>3443.016937783848</v>
       </c>
       <c r="Q20" t="n">
-        <v>3923.56014821068</v>
+        <v>3858.500892536428</v>
       </c>
       <c r="R20" t="n">
-        <v>3957.567781695718</v>
+        <v>3957.567781695719</v>
       </c>
       <c r="S20" t="n">
-        <v>3893.711635364671</v>
+        <v>3893.711635364672</v>
       </c>
       <c r="T20" t="n">
-        <v>3741.646922667339</v>
+        <v>3741.64692266734</v>
       </c>
       <c r="U20" t="n">
         <v>3543.775211911083</v>
@@ -5825,34 +5825,34 @@
         <v>188.0148448853821</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41383669201831</v>
+        <v>95.41383669201832</v>
       </c>
       <c r="I21" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J21" t="n">
-        <v>152.7027429633661</v>
+        <v>277.5328679503709</v>
       </c>
       <c r="K21" t="n">
-        <v>481.6552854608039</v>
+        <v>657.9328614923666</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1006350224131</v>
+        <v>978.3782110539757</v>
       </c>
       <c r="M21" t="n">
-        <v>1195.40211170239</v>
+        <v>1371.679687733952</v>
       </c>
       <c r="N21" t="n">
-        <v>1613.521753080764</v>
+        <v>1789.799329112326</v>
       </c>
       <c r="O21" t="n">
-        <v>1973.799743440894</v>
+        <v>2150.077319472457</v>
       </c>
       <c r="P21" t="n">
-        <v>2243.621527130319</v>
+        <v>2419.899103161882</v>
       </c>
       <c r="Q21" t="n">
-        <v>2582.047562384652</v>
+        <v>2550.348623557724</v>
       </c>
       <c r="R21" t="n">
         <v>2582.047562384652</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.6961033322476</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C22" t="n">
-        <v>608.4511839854443</v>
+        <v>608.451183985445</v>
       </c>
       <c r="D22" t="n">
-        <v>514.0258081542122</v>
+        <v>514.0258081542129</v>
       </c>
       <c r="E22" t="n">
-        <v>421.8039781529227</v>
+        <v>421.8039781529233</v>
       </c>
       <c r="F22" t="n">
-        <v>330.6052942361159</v>
+        <v>330.6052942361165</v>
       </c>
       <c r="G22" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217825</v>
       </c>
       <c r="H22" t="n">
-        <v>126.2655124388072</v>
+        <v>126.2655124388073</v>
       </c>
       <c r="I22" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J22" t="n">
         <v>166.2306638242915</v>
       </c>
       <c r="K22" t="n">
-        <v>404.0519125825647</v>
+        <v>404.0519125825645</v>
       </c>
       <c r="L22" t="n">
-        <v>748.6432167956291</v>
+        <v>748.6432167956289</v>
       </c>
       <c r="M22" t="n">
         <v>1119.3884341139</v>
@@ -5934,28 +5934,28 @@
         <v>2199.549952851775</v>
       </c>
       <c r="R22" t="n">
-        <v>2157.217648583189</v>
+        <v>2157.21764858319</v>
       </c>
       <c r="S22" t="n">
-        <v>2018.047493613028</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T22" t="n">
-        <v>1851.193580909353</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U22" t="n">
-        <v>1617.772038541364</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V22" t="n">
-        <v>1418.778813916581</v>
+        <v>1418.778813916582</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.052907460724</v>
+        <v>1185.052907460725</v>
       </c>
       <c r="X22" t="n">
-        <v>1012.75462014381</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.6533045813837</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="23">
@@ -5974,52 +5974,52 @@
         <v>1372.349368516947</v>
       </c>
       <c r="E23" t="n">
-        <v>1042.252379499807</v>
+        <v>1042.252379499806</v>
       </c>
       <c r="F23" t="n">
-        <v>686.9577382913028</v>
+        <v>686.9577382913026</v>
       </c>
       <c r="G23" t="n">
-        <v>327.1703315774469</v>
+        <v>327.1703315774466</v>
       </c>
       <c r="H23" t="n">
-        <v>81.11779275899389</v>
+        <v>81.1177927589937</v>
       </c>
       <c r="I23" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J23" t="n">
         <v>401.6448097991182</v>
       </c>
       <c r="K23" t="n">
-        <v>684.8197455910891</v>
+        <v>1005.723704036542</v>
       </c>
       <c r="L23" t="n">
-        <v>1486.509657744594</v>
+        <v>1507.461494892525</v>
       </c>
       <c r="M23" t="n">
-        <v>1950.132301439265</v>
+        <v>1971.084138587196</v>
       </c>
       <c r="N23" t="n">
-        <v>2425.870652590299</v>
+        <v>2879.795944906095</v>
       </c>
       <c r="O23" t="n">
-        <v>3105.495077545882</v>
+        <v>3315.686918299189</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.016937783847</v>
+        <v>3653.208778537154</v>
       </c>
       <c r="Q23" t="n">
-        <v>3858.500892536427</v>
+        <v>3858.500892536428</v>
       </c>
       <c r="R23" t="n">
-        <v>3957.567781695718</v>
+        <v>3957.567781695719</v>
       </c>
       <c r="S23" t="n">
-        <v>3893.711635364671</v>
+        <v>3893.711635364672</v>
       </c>
       <c r="T23" t="n">
-        <v>3741.646922667339</v>
+        <v>3741.64692266734</v>
       </c>
       <c r="U23" t="n">
         <v>3543.775211911083</v>
@@ -6062,34 +6062,34 @@
         <v>188.0148448853821</v>
       </c>
       <c r="H24" t="n">
-        <v>95.41383669201831</v>
+        <v>95.41383669201832</v>
       </c>
       <c r="I24" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J24" t="n">
-        <v>152.7027429633661</v>
+        <v>277.5328679503709</v>
       </c>
       <c r="K24" t="n">
-        <v>618.3891883693873</v>
+        <v>481.6552854608039</v>
       </c>
       <c r="L24" t="n">
-        <v>938.8345379309965</v>
+        <v>802.1006350224131</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.136014610973</v>
+        <v>1195.40211170239</v>
       </c>
       <c r="N24" t="n">
-        <v>1750.255655989347</v>
+        <v>1613.521753080764</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.533646349477</v>
+        <v>1973.799743440894</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.355430038902</v>
+        <v>2243.621527130319</v>
       </c>
       <c r="Q24" t="n">
-        <v>2550.348623557724</v>
+        <v>2582.047562384652</v>
       </c>
       <c r="R24" t="n">
         <v>2582.047562384652</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.6961033322481</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C25" t="n">
-        <v>608.4511839854448</v>
+        <v>608.451183985445</v>
       </c>
       <c r="D25" t="n">
-        <v>514.0258081542127</v>
+        <v>514.0258081542129</v>
       </c>
       <c r="E25" t="n">
-        <v>421.8039781529232</v>
+        <v>421.8039781529233</v>
       </c>
       <c r="F25" t="n">
-        <v>330.6052942361164</v>
+        <v>330.6052942361165</v>
       </c>
       <c r="G25" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217825</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2655124388072</v>
+        <v>126.2655124388073</v>
       </c>
       <c r="I25" t="n">
-        <v>79.15135563391436</v>
+        <v>79.15135563391438</v>
       </c>
       <c r="J25" t="n">
-        <v>166.2306638242915</v>
+        <v>166.2306638242917</v>
       </c>
       <c r="K25" t="n">
-        <v>404.0519125825645</v>
+        <v>404.0519125825649</v>
       </c>
       <c r="L25" t="n">
-        <v>748.6432167956289</v>
+        <v>748.6432167956293</v>
       </c>
       <c r="M25" t="n">
         <v>1119.388434113901</v>
@@ -6168,31 +6168,31 @@
         <v>2082.311148584326</v>
       </c>
       <c r="Q25" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R25" t="n">
         <v>2157.21764858319</v>
       </c>
       <c r="S25" t="n">
-        <v>2018.04749361303</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T25" t="n">
-        <v>1851.193580909355</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U25" t="n">
-        <v>1617.772038541366</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V25" t="n">
-        <v>1418.778813916583</v>
+        <v>1418.778813916582</v>
       </c>
       <c r="W25" t="n">
         <v>1185.052907460725</v>
       </c>
       <c r="X25" t="n">
-        <v>1012.754620143812</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.6533045813842</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2395.082247963842</v>
+        <v>2395.082247963843</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.11973102343</v>
+        <v>2026.119731023431</v>
       </c>
       <c r="D26" t="n">
-        <v>1667.85403241668</v>
+        <v>1667.854032416681</v>
       </c>
       <c r="E26" t="n">
-        <v>1282.065779818436</v>
+        <v>1282.065779818437</v>
       </c>
       <c r="F26" t="n">
-        <v>871.079875028828</v>
+        <v>871.0798750288295</v>
       </c>
       <c r="G26" t="n">
-        <v>455.6012047338686</v>
+        <v>455.6012047338693</v>
       </c>
       <c r="H26" t="n">
         <v>153.8574023343126</v>
@@ -6229,25 +6229,25 @@
         <v>418.6931557933336</v>
       </c>
       <c r="K26" t="n">
-        <v>1022.772050030758</v>
+        <v>701.8680915853046</v>
       </c>
       <c r="L26" t="n">
-        <v>1824.461962184263</v>
+        <v>1503.55800373881</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.084605878934</v>
+        <v>2412.199045591385</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.796412197833</v>
+        <v>3320.910851910283</v>
       </c>
       <c r="O26" t="n">
-        <v>4009.679565041044</v>
+        <v>3756.801825303377</v>
       </c>
       <c r="P26" t="n">
-        <v>4570.685333922175</v>
+        <v>4295.434237494616</v>
       </c>
       <c r="Q26" t="n">
-        <v>4775.977447921449</v>
+        <v>4710.918192247196</v>
       </c>
       <c r="R26" t="n">
         <v>4809.985081406488</v>
@@ -6259,19 +6259,19 @@
         <v>4482.681695215902</v>
       </c>
       <c r="U26" t="n">
-        <v>4229.11872087854</v>
+        <v>4229.118720878541</v>
       </c>
       <c r="V26" t="n">
-        <v>3898.05583353497</v>
+        <v>3898.055833534971</v>
       </c>
       <c r="W26" t="n">
-        <v>3545.287178264855</v>
+        <v>3545.287178264856</v>
       </c>
       <c r="X26" t="n">
         <v>3171.821420003776</v>
       </c>
       <c r="Y26" t="n">
-        <v>2781.682088027964</v>
+        <v>2781.682088027965</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J27" t="n">
-        <v>169.7510889575815</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K27" t="n">
-        <v>498.7036314550195</v>
+        <v>498.4470747081546</v>
       </c>
       <c r="L27" t="n">
-        <v>819.1489810166288</v>
+        <v>818.8924242697638</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.450457696605</v>
+        <v>1212.19390094974</v>
       </c>
       <c r="N27" t="n">
-        <v>1630.570099074979</v>
+        <v>1630.313542328114</v>
       </c>
       <c r="O27" t="n">
-        <v>1990.84808943511</v>
+        <v>1990.591532688245</v>
       </c>
       <c r="P27" t="n">
-        <v>2260.669873124535</v>
+        <v>2260.41331637767</v>
       </c>
       <c r="Q27" t="n">
-        <v>2599.095908378868</v>
+        <v>2567.39696955194</v>
       </c>
       <c r="R27" t="n">
         <v>2599.095908378868</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3713.790293567078</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="C28" t="n">
-        <v>3544.854110639171</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="D28" t="n">
-        <v>3544.854110639171</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="E28" t="n">
-        <v>3396.941017056778</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="F28" t="n">
-        <v>3396.941017056778</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="G28" t="n">
-        <v>3229.055964061341</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="H28" t="n">
-        <v>3229.055964061341</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="I28" t="n">
-        <v>3126.250543675344</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="J28" t="n">
-        <v>3158.746844429882</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K28" t="n">
-        <v>3341.985085752315</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L28" t="n">
-        <v>3631.993382529539</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M28" t="n">
-        <v>3948.155592411971</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N28" t="n">
-        <v>4262.234788022537</v>
+        <v>1232.183945975323</v>
       </c>
       <c r="O28" t="n">
-        <v>4536.321464845303</v>
+        <v>1506.270622798089</v>
       </c>
       <c r="P28" t="n">
-        <v>4747.329284574878</v>
+        <v>1717.278442527664</v>
       </c>
       <c r="Q28" t="n">
-        <v>4809.985081406488</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="R28" t="n">
-        <v>4809.985081406488</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="S28" t="n">
-        <v>4615.123662855223</v>
+        <v>1585.07282080801</v>
       </c>
       <c r="T28" t="n">
-        <v>4478.380166865587</v>
+        <v>1362.527644523231</v>
       </c>
       <c r="U28" t="n">
-        <v>4189.267360916495</v>
+        <v>1073.414838574139</v>
       </c>
       <c r="V28" t="n">
-        <v>3934.582872710608</v>
+        <v>818.7303503682518</v>
       </c>
       <c r="W28" t="n">
-        <v>3934.582872710608</v>
+        <v>529.3131803312913</v>
       </c>
       <c r="X28" t="n">
-        <v>3934.582872710608</v>
+        <v>301.3236294332739</v>
       </c>
       <c r="Y28" t="n">
-        <v>3713.790293567078</v>
+        <v>277.8481664583695</v>
       </c>
     </row>
     <row r="29">
@@ -6445,61 +6445,61 @@
         <v>2026.119731023431</v>
       </c>
       <c r="D29" t="n">
-        <v>1667.854032416681</v>
+        <v>1667.85403241668</v>
       </c>
       <c r="E29" t="n">
         <v>1282.065779818436</v>
       </c>
       <c r="F29" t="n">
-        <v>871.0798750288287</v>
+        <v>871.0798750288286</v>
       </c>
       <c r="G29" t="n">
-        <v>455.6012047338693</v>
+        <v>455.6012047338692</v>
       </c>
       <c r="H29" t="n">
         <v>153.8574023343126</v>
       </c>
       <c r="I29" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="J29" t="n">
-        <v>418.6931557933336</v>
+        <v>418.6931557933335</v>
       </c>
       <c r="K29" t="n">
         <v>1022.772050030758</v>
       </c>
       <c r="L29" t="n">
-        <v>1507.128365994315</v>
+        <v>1824.461962184263</v>
       </c>
       <c r="M29" t="n">
-        <v>2415.76940784689</v>
+        <v>2350.710152172634</v>
       </c>
       <c r="N29" t="n">
-        <v>2891.507758997925</v>
+        <v>2826.448503323669</v>
       </c>
       <c r="O29" t="n">
-        <v>3704.390911841137</v>
+        <v>3639.331656166881</v>
       </c>
       <c r="P29" t="n">
-        <v>4360.493493168869</v>
+        <v>4295.434237494614</v>
       </c>
       <c r="Q29" t="n">
-        <v>4775.977447921449</v>
+        <v>4710.918192247193</v>
       </c>
       <c r="R29" t="n">
-        <v>4809.985081406488</v>
+        <v>4809.985081406485</v>
       </c>
       <c r="S29" t="n">
-        <v>4690.437671494336</v>
+        <v>4690.437671494334</v>
       </c>
       <c r="T29" t="n">
-        <v>4482.681695215902</v>
+        <v>4482.681695215899</v>
       </c>
       <c r="U29" t="n">
-        <v>4229.118720878541</v>
+        <v>4229.118720878539</v>
       </c>
       <c r="V29" t="n">
-        <v>3898.055833534971</v>
+        <v>3898.055833534968</v>
       </c>
       <c r="W29" t="n">
         <v>3545.287178264856</v>
@@ -6533,34 +6533,34 @@
         <v>341.6436379831831</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0631908795975</v>
+        <v>205.0631908795974</v>
       </c>
       <c r="H30" t="n">
-        <v>112.4621826862337</v>
+        <v>112.4621826862336</v>
       </c>
       <c r="I30" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="J30" t="n">
-        <v>169.7510889575815</v>
+        <v>263.1388318645231</v>
       </c>
       <c r="K30" t="n">
-        <v>373.6169497211499</v>
+        <v>467.0046926280915</v>
       </c>
       <c r="L30" t="n">
-        <v>694.0622992827591</v>
+        <v>787.4500421897008</v>
       </c>
       <c r="M30" t="n">
-        <v>1388.728033728168</v>
+        <v>1180.751518869677</v>
       </c>
       <c r="N30" t="n">
-        <v>1806.847675106542</v>
+        <v>1598.871160248051</v>
       </c>
       <c r="O30" t="n">
-        <v>2167.125665466672</v>
+        <v>1959.149150608182</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.947449156097</v>
+        <v>2228.970934297607</v>
       </c>
       <c r="Q30" t="n">
         <v>2567.39696955194</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3694.970750051507</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="C31" t="n">
-        <v>3694.970750051507</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="D31" t="n">
-        <v>3544.854110639171</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="E31" t="n">
-        <v>3396.941017056778</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="F31" t="n">
-        <v>3396.941017056778</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="G31" t="n">
-        <v>3229.055964061341</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="H31" t="n">
-        <v>3229.055964061341</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="I31" t="n">
-        <v>3126.250543675344</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="J31" t="n">
-        <v>3158.746844429882</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K31" t="n">
-        <v>3341.985085752315</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L31" t="n">
-        <v>3631.993382529539</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M31" t="n">
-        <v>3948.155592411971</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N31" t="n">
-        <v>4262.234788022537</v>
+        <v>1232.183945975323</v>
       </c>
       <c r="O31" t="n">
-        <v>4536.321464845303</v>
+        <v>1506.270622798089</v>
       </c>
       <c r="P31" t="n">
-        <v>4747.329284574878</v>
+        <v>1717.278442527664</v>
       </c>
       <c r="Q31" t="n">
-        <v>4809.985081406488</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="R31" t="n">
-        <v>4711.961513556798</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="S31" t="n">
-        <v>4683.138741765817</v>
+        <v>1585.07282080801</v>
       </c>
       <c r="T31" t="n">
-        <v>4683.138741765817</v>
+        <v>1362.527644523231</v>
       </c>
       <c r="U31" t="n">
-        <v>4394.025935816725</v>
+        <v>1073.414838574139</v>
       </c>
       <c r="V31" t="n">
-        <v>4394.025935816725</v>
+        <v>818.7303503682518</v>
       </c>
       <c r="W31" t="n">
-        <v>4104.608765779764</v>
+        <v>529.3131803312913</v>
       </c>
       <c r="X31" t="n">
-        <v>3876.619214881747</v>
+        <v>301.3236294332739</v>
       </c>
       <c r="Y31" t="n">
-        <v>3876.619214881747</v>
+        <v>243.0896491260401</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2395.082247963842</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.11973102343</v>
+        <v>2026.119731023431</v>
       </c>
       <c r="D32" t="n">
         <v>1667.85403241668</v>
@@ -6688,55 +6688,55 @@
         <v>1282.065779818436</v>
       </c>
       <c r="F32" t="n">
-        <v>871.0798750288286</v>
+        <v>871.0798750288284</v>
       </c>
       <c r="G32" t="n">
         <v>455.6012047338691</v>
       </c>
       <c r="H32" t="n">
-        <v>153.8574023343126</v>
+        <v>153.8574023343125</v>
       </c>
       <c r="I32" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="J32" t="n">
-        <v>251.2875067729806</v>
+        <v>251.2875067729805</v>
       </c>
       <c r="K32" t="n">
-        <v>855.3664010104046</v>
+        <v>801.2375605160171</v>
       </c>
       <c r="L32" t="n">
-        <v>1657.05631316391</v>
+        <v>1602.927472669522</v>
       </c>
       <c r="M32" t="n">
-        <v>2192.987793432332</v>
+        <v>2511.568514522097</v>
       </c>
       <c r="N32" t="n">
-        <v>3101.69959975123</v>
+        <v>3420.280320840996</v>
       </c>
       <c r="O32" t="n">
-        <v>3914.582752594442</v>
+        <v>4233.163473684208</v>
       </c>
       <c r="P32" t="n">
-        <v>4570.685333922175</v>
+        <v>4570.685333922173</v>
       </c>
       <c r="Q32" t="n">
-        <v>4775.977447921449</v>
+        <v>4775.977447921447</v>
       </c>
       <c r="R32" t="n">
-        <v>4809.985081406488</v>
+        <v>4809.985081406485</v>
       </c>
       <c r="S32" t="n">
-        <v>4690.437671494336</v>
+        <v>4690.437671494334</v>
       </c>
       <c r="T32" t="n">
-        <v>4482.681695215901</v>
+        <v>4482.681695215899</v>
       </c>
       <c r="U32" t="n">
-        <v>4229.11872087854</v>
+        <v>4229.118720878539</v>
       </c>
       <c r="V32" t="n">
-        <v>3898.05583353497</v>
+        <v>3898.055833534968</v>
       </c>
       <c r="W32" t="n">
         <v>3545.287178264855</v>
@@ -6770,37 +6770,37 @@
         <v>341.6436379831831</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0631908795975</v>
+        <v>205.0631908795974</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4621826862337</v>
+        <v>112.4621826862336</v>
       </c>
       <c r="I33" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="J33" t="n">
-        <v>169.7510889575815</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K33" t="n">
-        <v>373.6169497211499</v>
+        <v>674.9812074865822</v>
       </c>
       <c r="L33" t="n">
-        <v>694.0622992827591</v>
+        <v>995.4265570481914</v>
       </c>
       <c r="M33" t="n">
-        <v>1087.363775962736</v>
+        <v>1388.728033728168</v>
       </c>
       <c r="N33" t="n">
-        <v>1505.48341734111</v>
+        <v>1806.847675106542</v>
       </c>
       <c r="O33" t="n">
-        <v>1865.76140770124</v>
+        <v>2167.125665466672</v>
       </c>
       <c r="P33" t="n">
-        <v>2260.669873124535</v>
+        <v>2436.947449156097</v>
       </c>
       <c r="Q33" t="n">
-        <v>2599.095908378868</v>
+        <v>2567.39696955194</v>
       </c>
       <c r="R33" t="n">
         <v>2599.095908378868</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>410.9747021214777</v>
+        <v>265.1358845560366</v>
       </c>
       <c r="C34" t="n">
-        <v>410.9747021214777</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="D34" t="n">
-        <v>410.9747021214777</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="E34" t="n">
-        <v>410.9747021214777</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="F34" t="n">
-        <v>264.0847546235673</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="G34" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="H34" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="I34" t="n">
-        <v>96.19970162812976</v>
+        <v>96.1997016281297</v>
       </c>
       <c r="J34" t="n">
         <v>128.6960023826672</v>
@@ -6882,28 +6882,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R34" t="n">
-        <v>1779.934239359274</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="S34" t="n">
-        <v>1585.07282080801</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="T34" t="n">
-        <v>1362.527644523231</v>
+        <v>1459.365495224806</v>
       </c>
       <c r="U34" t="n">
-        <v>1296.089785199152</v>
+        <v>1170.252689275713</v>
       </c>
       <c r="V34" t="n">
-        <v>1041.405296993265</v>
+        <v>915.5682010698266</v>
       </c>
       <c r="W34" t="n">
-        <v>1041.405296993265</v>
+        <v>626.1510310328661</v>
       </c>
       <c r="X34" t="n">
-        <v>813.4157460952475</v>
+        <v>626.1510310328661</v>
       </c>
       <c r="Y34" t="n">
-        <v>592.6231669517174</v>
+        <v>405.3584518893359</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2395.082247963843</v>
+        <v>2395.082247963841</v>
       </c>
       <c r="C35" t="n">
-        <v>2026.119731023432</v>
+        <v>2026.119731023429</v>
       </c>
       <c r="D35" t="n">
-        <v>1667.854032416681</v>
+        <v>1667.854032416679</v>
       </c>
       <c r="E35" t="n">
-        <v>1282.065779818437</v>
+        <v>1282.065779818435</v>
       </c>
       <c r="F35" t="n">
-        <v>871.079875028829</v>
+        <v>871.0798750288272</v>
       </c>
       <c r="G35" t="n">
-        <v>455.6012047338694</v>
+        <v>455.6012047338691</v>
       </c>
       <c r="H35" t="n">
-        <v>153.8574023343127</v>
+        <v>153.8574023343125</v>
       </c>
       <c r="I35" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J35" t="n">
-        <v>251.2875067729806</v>
+        <v>418.6931557933336</v>
       </c>
       <c r="K35" t="n">
-        <v>534.4624425649515</v>
+        <v>1022.772050030758</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.152354718457</v>
+        <v>1824.461962184263</v>
       </c>
       <c r="M35" t="n">
-        <v>1982.795952679027</v>
+        <v>2288.084605878933</v>
       </c>
       <c r="N35" t="n">
-        <v>2891.507758997926</v>
+        <v>2826.448503323671</v>
       </c>
       <c r="O35" t="n">
-        <v>3704.390911841137</v>
+        <v>3639.331656166883</v>
       </c>
       <c r="P35" t="n">
-        <v>4360.49349316887</v>
+        <v>4295.434237494615</v>
       </c>
       <c r="Q35" t="n">
-        <v>4775.97744792145</v>
+        <v>4710.918192247195</v>
       </c>
       <c r="R35" t="n">
-        <v>4809.985081406488</v>
+        <v>4809.985081406487</v>
       </c>
       <c r="S35" t="n">
-        <v>4690.437671494337</v>
+        <v>4690.437671494336</v>
       </c>
       <c r="T35" t="n">
-        <v>4482.681695215902</v>
+        <v>4482.681695215901</v>
       </c>
       <c r="U35" t="n">
-        <v>4229.118720878541</v>
+        <v>4229.11872087854</v>
       </c>
       <c r="V35" t="n">
-        <v>3898.055833534971</v>
+        <v>3898.055833534969</v>
       </c>
       <c r="W35" t="n">
-        <v>3545.287178264856</v>
+        <v>3545.287178264854</v>
       </c>
       <c r="X35" t="n">
-        <v>3171.821420003776</v>
+        <v>3171.821420003775</v>
       </c>
       <c r="Y35" t="n">
-        <v>2781.682088027965</v>
+        <v>2781.682088027963</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>488.1781959562982</v>
       </c>
       <c r="F36" t="n">
-        <v>341.6436379831832</v>
+        <v>341.6436379831831</v>
       </c>
       <c r="G36" t="n">
         <v>205.0631908795975</v>
@@ -7013,31 +7013,31 @@
         <v>112.4621826862337</v>
       </c>
       <c r="I36" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J36" t="n">
-        <v>169.7510889575815</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K36" t="n">
-        <v>373.6169497211499</v>
+        <v>674.9812074865822</v>
       </c>
       <c r="L36" t="n">
-        <v>694.0622992827591</v>
+        <v>995.4265570481914</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.363775962736</v>
+        <v>1388.728033728168</v>
       </c>
       <c r="N36" t="n">
-        <v>1505.48341734111</v>
+        <v>1806.847675106542</v>
       </c>
       <c r="O36" t="n">
-        <v>1865.76140770124</v>
+        <v>2167.125665466672</v>
       </c>
       <c r="P36" t="n">
-        <v>2260.669873124535</v>
+        <v>2436.947449156097</v>
       </c>
       <c r="Q36" t="n">
-        <v>2599.095908378868</v>
+        <v>2567.39696955194</v>
       </c>
       <c r="R36" t="n">
         <v>2599.095908378868</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>465.1815215439586</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="C37" t="n">
-        <v>465.1815215439586</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="D37" t="n">
-        <v>465.1815215439586</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="E37" t="n">
-        <v>317.2684279615655</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="F37" t="n">
-        <v>317.2684279615655</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="G37" t="n">
-        <v>149.383374966128</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="H37" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="I37" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J37" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K37" t="n">
         <v>311.9342437051006</v>
@@ -7131,16 +7131,16 @@
         <v>975.3912707244494</v>
       </c>
       <c r="V37" t="n">
-        <v>975.3912707244494</v>
+        <v>834.3990017066378</v>
       </c>
       <c r="W37" t="n">
-        <v>685.9741006874888</v>
+        <v>544.9818316696771</v>
       </c>
       <c r="X37" t="n">
-        <v>685.9741006874888</v>
+        <v>316.9922807716598</v>
       </c>
       <c r="Y37" t="n">
-        <v>465.1815215439586</v>
+        <v>96.19970162812973</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2395.082247963843</v>
+        <v>2395.082247963842</v>
       </c>
       <c r="C38" t="n">
-        <v>2026.119731023431</v>
+        <v>2026.11973102343</v>
       </c>
       <c r="D38" t="n">
-        <v>1667.854032416681</v>
+        <v>1667.85403241668</v>
       </c>
       <c r="E38" t="n">
-        <v>1282.065779818437</v>
+        <v>1282.065779818436</v>
       </c>
       <c r="F38" t="n">
-        <v>871.079875028829</v>
+        <v>871.0798750288282</v>
       </c>
       <c r="G38" t="n">
-        <v>455.6012047338694</v>
+        <v>455.6012047338688</v>
       </c>
       <c r="H38" t="n">
-        <v>153.8574023343127</v>
+        <v>153.8574023343126</v>
       </c>
       <c r="I38" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J38" t="n">
-        <v>418.6931557933336</v>
+        <v>251.2875067729806</v>
       </c>
       <c r="K38" t="n">
-        <v>1022.772050030758</v>
+        <v>534.4624425649515</v>
       </c>
       <c r="L38" t="n">
-        <v>1519.173308984356</v>
+        <v>1336.152354718457</v>
       </c>
       <c r="M38" t="n">
-        <v>1982.795952679027</v>
+        <v>1917.736697004772</v>
       </c>
       <c r="N38" t="n">
-        <v>2891.507758997926</v>
+        <v>2826.448503323671</v>
       </c>
       <c r="O38" t="n">
-        <v>3704.390911841137</v>
+        <v>3639.331656166883</v>
       </c>
       <c r="P38" t="n">
-        <v>4360.49349316887</v>
+        <v>4295.434237494615</v>
       </c>
       <c r="Q38" t="n">
-        <v>4775.97744792145</v>
+        <v>4710.918192247195</v>
       </c>
       <c r="R38" t="n">
-        <v>4809.985081406488</v>
+        <v>4809.985081406487</v>
       </c>
       <c r="S38" t="n">
-        <v>4690.437671494337</v>
+        <v>4690.437671494336</v>
       </c>
       <c r="T38" t="n">
-        <v>4482.681695215902</v>
+        <v>4482.681695215901</v>
       </c>
       <c r="U38" t="n">
-        <v>4229.118720878541</v>
+        <v>4229.11872087854</v>
       </c>
       <c r="V38" t="n">
-        <v>3898.055833534971</v>
+        <v>3898.055833534969</v>
       </c>
       <c r="W38" t="n">
-        <v>3545.287178264856</v>
+        <v>3545.287178264854</v>
       </c>
       <c r="X38" t="n">
-        <v>3171.821420003776</v>
+        <v>3171.821420003775</v>
       </c>
       <c r="Y38" t="n">
-        <v>2781.682088027965</v>
+        <v>2781.682088027963</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>488.1781959562982</v>
       </c>
       <c r="F39" t="n">
-        <v>341.6436379831832</v>
+        <v>341.6436379831831</v>
       </c>
       <c r="G39" t="n">
         <v>205.0631908795975</v>
@@ -7250,13 +7250,13 @@
         <v>112.4621826862337</v>
       </c>
       <c r="I39" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J39" t="n">
-        <v>169.7510889575815</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K39" t="n">
-        <v>373.6169497211499</v>
+        <v>674.9812074865822</v>
       </c>
       <c r="L39" t="n">
         <v>995.4265570481914</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.5816019864154</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="C40" t="n">
-        <v>641.6454190585085</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="D40" t="n">
-        <v>641.6454190585085</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="E40" t="n">
-        <v>493.7323254761154</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="F40" t="n">
-        <v>346.842377978205</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="G40" t="n">
-        <v>346.842377978205</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="H40" t="n">
-        <v>199.0051220141262</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="I40" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J40" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K40" t="n">
         <v>311.9342437051006</v>
@@ -7356,28 +7356,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R40" t="n">
-        <v>1779.934239359274</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="S40" t="n">
-        <v>1585.07282080801</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.027360971634</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="U40" t="n">
-        <v>1246.914555022542</v>
+        <v>1270.731954742764</v>
       </c>
       <c r="V40" t="n">
-        <v>992.2300668166552</v>
+        <v>1016.047466536877</v>
       </c>
       <c r="W40" t="n">
-        <v>992.2300668166552</v>
+        <v>726.6302964999169</v>
       </c>
       <c r="X40" t="n">
-        <v>992.2300668166552</v>
+        <v>498.6407456018995</v>
       </c>
       <c r="Y40" t="n">
-        <v>992.2300668166552</v>
+        <v>277.8481664583694</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2395.082247963844</v>
+        <v>2395.082247963842</v>
       </c>
       <c r="C41" t="n">
-        <v>2026.119731023432</v>
+        <v>2026.119731023431</v>
       </c>
       <c r="D41" t="n">
-        <v>1667.854032416681</v>
+        <v>1667.85403241668</v>
       </c>
       <c r="E41" t="n">
         <v>1282.065779818436</v>
       </c>
       <c r="F41" t="n">
-        <v>871.0798750288287</v>
+        <v>871.0798750288285</v>
       </c>
       <c r="G41" t="n">
-        <v>455.6012047338693</v>
+        <v>455.6012047338691</v>
       </c>
       <c r="H41" t="n">
         <v>153.8574023343126</v>
       </c>
       <c r="I41" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J41" t="n">
         <v>418.6931557933336</v>
@@ -7420,43 +7420,43 @@
         <v>1824.461962184263</v>
       </c>
       <c r="M41" t="n">
-        <v>2733.103004036838</v>
+        <v>2288.084605878933</v>
       </c>
       <c r="N41" t="n">
-        <v>3208.841355187872</v>
+        <v>3036.640344076976</v>
       </c>
       <c r="O41" t="n">
-        <v>4021.724508031084</v>
+        <v>3849.523496920188</v>
       </c>
       <c r="P41" t="n">
-        <v>4570.685333922176</v>
+        <v>4505.626078247921</v>
       </c>
       <c r="Q41" t="n">
-        <v>4775.97744792145</v>
+        <v>4710.918192247195</v>
       </c>
       <c r="R41" t="n">
-        <v>4809.985081406488</v>
+        <v>4809.985081406487</v>
       </c>
       <c r="S41" t="n">
-        <v>4690.437671494337</v>
+        <v>4690.437671494336</v>
       </c>
       <c r="T41" t="n">
-        <v>4482.681695215902</v>
+        <v>4482.681695215901</v>
       </c>
       <c r="U41" t="n">
-        <v>4229.118720878542</v>
+        <v>4229.11872087854</v>
       </c>
       <c r="V41" t="n">
-        <v>3898.055833534971</v>
+        <v>3898.05583353497</v>
       </c>
       <c r="W41" t="n">
-        <v>3545.287178264857</v>
+        <v>3545.287178264855</v>
       </c>
       <c r="X41" t="n">
-        <v>3171.821420003777</v>
+        <v>3171.821420003776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2781.682088027966</v>
+        <v>2781.682088027964</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>488.1781959562982</v>
       </c>
       <c r="F42" t="n">
-        <v>341.6436379831832</v>
+        <v>341.6436379831831</v>
       </c>
       <c r="G42" t="n">
         <v>205.0631908795975</v>
@@ -7487,31 +7487,31 @@
         <v>112.4621826862337</v>
       </c>
       <c r="I42" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J42" t="n">
-        <v>294.5812139445863</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K42" t="n">
-        <v>498.4470747081547</v>
+        <v>498.4470747081546</v>
       </c>
       <c r="L42" t="n">
-        <v>818.892424269764</v>
+        <v>995.4265570481914</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.193900949741</v>
+        <v>1388.728033728168</v>
       </c>
       <c r="N42" t="n">
-        <v>1630.313542328114</v>
+        <v>1806.847675106542</v>
       </c>
       <c r="O42" t="n">
-        <v>1990.591532688245</v>
+        <v>2167.125665466672</v>
       </c>
       <c r="P42" t="n">
-        <v>2260.41331637767</v>
+        <v>2436.947449156097</v>
       </c>
       <c r="Q42" t="n">
-        <v>2598.839351632003</v>
+        <v>2567.39696955194</v>
       </c>
       <c r="R42" t="n">
         <v>2599.095908378868</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3588.938637751086</v>
+        <v>730.9748329278887</v>
       </c>
       <c r="C43" t="n">
-        <v>3588.938637751086</v>
+        <v>562.0386499999818</v>
       </c>
       <c r="D43" t="n">
-        <v>3588.938637751086</v>
+        <v>411.9220105876461</v>
       </c>
       <c r="E43" t="n">
-        <v>3441.025544168693</v>
+        <v>411.9220105876461</v>
       </c>
       <c r="F43" t="n">
-        <v>3294.135596670782</v>
+        <v>411.9220105876461</v>
       </c>
       <c r="G43" t="n">
-        <v>3126.250543675345</v>
+        <v>244.0369575922086</v>
       </c>
       <c r="H43" t="n">
-        <v>3126.250543675345</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="I43" t="n">
-        <v>3126.250543675345</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J43" t="n">
-        <v>3158.746844429882</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K43" t="n">
-        <v>3341.985085752316</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L43" t="n">
-        <v>3631.99338252954</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M43" t="n">
-        <v>3948.155592411972</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N43" t="n">
-        <v>4262.234788022538</v>
+        <v>1232.183945975323</v>
       </c>
       <c r="O43" t="n">
-        <v>4536.321464845304</v>
+        <v>1506.270622798089</v>
       </c>
       <c r="P43" t="n">
-        <v>4747.329284574879</v>
+        <v>1717.278442527664</v>
       </c>
       <c r="Q43" t="n">
-        <v>4809.985081406488</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="R43" t="n">
-        <v>4711.961513556799</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="S43" t="n">
-        <v>4711.961513556799</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="T43" t="n">
-        <v>4577.106629465396</v>
+        <v>1557.389063074495</v>
       </c>
       <c r="U43" t="n">
-        <v>4287.993823516304</v>
+        <v>1557.389063074495</v>
       </c>
       <c r="V43" t="n">
-        <v>4287.993823516304</v>
+        <v>1302.704574868608</v>
       </c>
       <c r="W43" t="n">
-        <v>3998.576653479343</v>
+        <v>1013.287404831647</v>
       </c>
       <c r="X43" t="n">
-        <v>3770.587102581326</v>
+        <v>785.29785393363</v>
       </c>
       <c r="Y43" t="n">
-        <v>3770.587102581326</v>
+        <v>730.9748329278887</v>
       </c>
     </row>
     <row r="44">
@@ -7639,55 +7639,55 @@
         <v>871.0798750288286</v>
       </c>
       <c r="G44" t="n">
-        <v>455.6012047338693</v>
+        <v>455.6012047338692</v>
       </c>
       <c r="H44" t="n">
         <v>153.8574023343126</v>
       </c>
       <c r="I44" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J44" t="n">
         <v>418.6931557933336</v>
       </c>
       <c r="K44" t="n">
-        <v>701.8680915853046</v>
+        <v>1022.772050030758</v>
       </c>
       <c r="L44" t="n">
-        <v>1503.55800373881</v>
+        <v>1824.461962184263</v>
       </c>
       <c r="M44" t="n">
-        <v>2412.199045591385</v>
+        <v>2350.710152172636</v>
       </c>
       <c r="N44" t="n">
-        <v>3320.910851910283</v>
+        <v>2826.448503323671</v>
       </c>
       <c r="O44" t="n">
-        <v>4022.971632930905</v>
+        <v>3639.331656166883</v>
       </c>
       <c r="P44" t="n">
-        <v>4360.49349316887</v>
+        <v>4295.434237494615</v>
       </c>
       <c r="Q44" t="n">
-        <v>4775.97744792145</v>
+        <v>4710.918192247195</v>
       </c>
       <c r="R44" t="n">
-        <v>4809.985081406488</v>
+        <v>4809.985081406487</v>
       </c>
       <c r="S44" t="n">
-        <v>4690.437671494337</v>
+        <v>4690.437671494336</v>
       </c>
       <c r="T44" t="n">
-        <v>4482.681695215902</v>
+        <v>4482.681695215901</v>
       </c>
       <c r="U44" t="n">
-        <v>4229.118720878541</v>
+        <v>4229.11872087854</v>
       </c>
       <c r="V44" t="n">
-        <v>3898.055833534971</v>
+        <v>3898.05583353497</v>
       </c>
       <c r="W44" t="n">
-        <v>3545.287178264856</v>
+        <v>3545.287178264855</v>
       </c>
       <c r="X44" t="n">
         <v>3171.821420003776</v>
@@ -7715,7 +7715,7 @@
         <v>488.1781959562982</v>
       </c>
       <c r="F45" t="n">
-        <v>341.6436379831832</v>
+        <v>341.6436379831831</v>
       </c>
       <c r="G45" t="n">
         <v>205.0631908795975</v>
@@ -7724,31 +7724,31 @@
         <v>112.4621826862337</v>
       </c>
       <c r="I45" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J45" t="n">
-        <v>169.7510889575815</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K45" t="n">
-        <v>373.6169497211499</v>
+        <v>674.9812074865822</v>
       </c>
       <c r="L45" t="n">
-        <v>694.0622992827591</v>
+        <v>995.4265570481914</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.363775962736</v>
+        <v>1388.728033728168</v>
       </c>
       <c r="N45" t="n">
-        <v>1630.570099074979</v>
+        <v>1806.847675106542</v>
       </c>
       <c r="O45" t="n">
-        <v>1990.84808943511</v>
+        <v>2167.125665466672</v>
       </c>
       <c r="P45" t="n">
-        <v>2260.669873124535</v>
+        <v>2436.947449156097</v>
       </c>
       <c r="Q45" t="n">
-        <v>2599.095908378868</v>
+        <v>2567.39696955194</v>
       </c>
       <c r="R45" t="n">
         <v>2599.095908378868</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>980.6702008117956</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="C46" t="n">
-        <v>811.7340178838887</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="D46" t="n">
-        <v>661.6173784715529</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="E46" t="n">
-        <v>661.6173784715529</v>
+        <v>243.0896491260401</v>
       </c>
       <c r="F46" t="n">
-        <v>514.7274309736425</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="G46" t="n">
-        <v>346.842377978205</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="H46" t="n">
-        <v>199.0051220141262</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="I46" t="n">
-        <v>96.19970162812977</v>
+        <v>96.19970162812973</v>
       </c>
       <c r="J46" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K46" t="n">
         <v>311.9342437051006</v>
@@ -7830,28 +7830,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R46" t="n">
-        <v>1718.869500890304</v>
+        <v>1779.934239359274</v>
       </c>
       <c r="S46" t="n">
-        <v>1718.869500890304</v>
+        <v>1585.07282080801</v>
       </c>
       <c r="T46" t="n">
-        <v>1718.869500890304</v>
+        <v>1362.527644523231</v>
       </c>
       <c r="U46" t="n">
-        <v>1718.869500890304</v>
+        <v>1073.414838574139</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.869500890304</v>
+        <v>818.7303503682518</v>
       </c>
       <c r="W46" t="n">
-        <v>1429.452330853343</v>
+        <v>529.3131803312913</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.462779955326</v>
+        <v>301.3236294332739</v>
       </c>
       <c r="Y46" t="n">
-        <v>980.6702008117956</v>
+        <v>243.0896491260401</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504478</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979169</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609917</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221028</v>
       </c>
       <c r="P3" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8695,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>86.87989173957885</v>
+        <v>342.0579119976442</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>336.4274713054142</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>178.3173058367952</v>
       </c>
       <c r="R12" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.2274900863843</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.80919730936544</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>178.3173058367953</v>
       </c>
       <c r="L15" t="n">
-        <v>336.4274713054142</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>17.91249942647926</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.80919730936563</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>336.4274713054141</v>
+        <v>178.3173058367951</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>226.5096957571426</v>
       </c>
       <c r="L20" t="n">
-        <v>84.24034386869454</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>126.350183569565</v>
+        <v>178.3173058367953</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>114.6792738458828</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>246.1954056186757</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0.2591482291562386</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.94310416462562</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>225.7413218617838</v>
+        <v>203.1419716699739</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>126.3501835695653</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>178.3173058367957</v>
       </c>
       <c r="R27" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>97.12222849999836</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>63.25812756939479</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>94.33105344135521</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>304.4083411772044</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>269.4698161121875</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>73.03922886237478</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>178.3173058367956</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>126.3501835695653</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>184.8696507736357</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>63.25812756939666</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>178.3173058367956</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>126.3501835695653</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>109.2888375808475</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>119.1532309006509</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>178.3173058367956</v>
       </c>
       <c r="L39" t="n">
-        <v>304.4083411772043</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>275.5731182293014</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>213.5747127809366</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>178.3173058367956</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.76168791226689</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>63.25812756939672</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>268.8583915429576</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>178.3173058367956</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>126.3501835695654</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>13.50253968311074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H28" t="n">
         <v>146.358883404438</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.7773661821365</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>84.94366349219106</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>195.3439450069394</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H31" t="n">
         <v>146.358883404438</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.7773661821365</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S31" t="n">
-        <v>164.37826029268</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3197245219311</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>160.9330128479332</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>41.01163852197098</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H34" t="n">
         <v>146.358883404438</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>97.04333217119236</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>192.9128043657514</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>220.4481971587631</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H37" t="n">
-        <v>93.70704679981978</v>
+        <v>146.358883404438</v>
       </c>
       <c r="I37" t="n">
         <v>101.7773661821365</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>112.5552969961945</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.2062024654831</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.358883404438</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>101.7773661821365</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.04333217119236</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>171.7647192839194</v>
+        <v>220.3197245219311</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>72.0675526562008</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.358883404438</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>101.7773661821365</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S43" t="n">
         <v>192.9128043657514</v>
       </c>
       <c r="T43" t="n">
-        <v>86.81338927144148</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2216778896013</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>164.8048625564109</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.358883404438</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.7773661821365</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.589241086912</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S46" t="n">
-        <v>192.9128043657514</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.3197245219311</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2216778896013</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>160.9330128479333</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>732141.6230361729</v>
+        <v>732141.6230361728</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675530.7792627073</v>
+        <v>675530.7792627072</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675530.7792627072</v>
+        <v>675530.7792627073</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675530.7792627072</v>
+        <v>675530.7792627073</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675530.7792627071</v>
+        <v>675530.7792627072</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
-        <v>779989.6813710703</v>
+        <v>779989.68137107</v>
       </c>
       <c r="F2" t="n">
-        <v>779989.68137107</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="G2" t="n">
         <v>779989.6813710704</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710702</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="J2" t="n">
+        <v>750020.2889954922</v>
+      </c>
+      <c r="K2" t="n">
         <v>750020.2889954923</v>
-      </c>
-      <c r="K2" t="n">
-        <v>750020.2889954922</v>
       </c>
       <c r="L2" t="n">
         <v>750020.2889954922</v>
       </c>
       <c r="M2" t="n">
-        <v>750020.2889954922</v>
+        <v>750020.288995492</v>
       </c>
       <c r="N2" t="n">
         <v>750020.2889954922</v>
       </c>
       <c r="O2" t="n">
-        <v>750020.2889954922</v>
+        <v>750020.288995492</v>
       </c>
       <c r="P2" t="n">
         <v>750020.288995492</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154751</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.20373307911359e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1062716.600319647</v>
+        <v>1062716.600319648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118817.4105904874</v>
+        <v>118817.4105904871</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.850638409455617e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186498.7055219568</v>
+        <v>186498.705521957</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.850638409455616e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354433.2672769093</v>
+        <v>354433.2672769094</v>
       </c>
       <c r="C4" t="n">
         <v>354433.2672769093</v>
@@ -26426,40 +26426,40 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>85227.72456210307</v>
+        <v>85227.72456210305</v>
       </c>
       <c r="F4" t="n">
-        <v>85227.72456210307</v>
+        <v>85227.72456210305</v>
       </c>
       <c r="G4" t="n">
-        <v>85227.72456210307</v>
+        <v>85227.72456210305</v>
       </c>
       <c r="H4" t="n">
-        <v>85227.72456210307</v>
+        <v>85227.72456210302</v>
       </c>
       <c r="I4" t="n">
-        <v>85227.72456210307</v>
+        <v>85227.72456210305</v>
       </c>
       <c r="J4" t="n">
-        <v>44725.27634000702</v>
+        <v>44725.27634000701</v>
       </c>
       <c r="K4" t="n">
-        <v>44725.27634000701</v>
+        <v>44725.27634000703</v>
       </c>
       <c r="L4" t="n">
-        <v>44725.27634000701</v>
+        <v>44725.27634000708</v>
       </c>
       <c r="M4" t="n">
-        <v>44725.27634000698</v>
+        <v>44725.27634000703</v>
       </c>
       <c r="N4" t="n">
-        <v>44725.27634000698</v>
+        <v>44725.27634000703</v>
       </c>
       <c r="O4" t="n">
         <v>44725.27634000704</v>
       </c>
       <c r="P4" t="n">
-        <v>44725.27634000703</v>
+        <v>44725.276340007</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376163</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26478,40 +26478,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>86366.45014302197</v>
+        <v>86366.45014302198</v>
       </c>
       <c r="F5" t="n">
-        <v>86366.45014302197</v>
+        <v>86366.45014302198</v>
       </c>
       <c r="G5" t="n">
-        <v>86366.45014302197</v>
+        <v>86366.45014302198</v>
       </c>
       <c r="H5" t="n">
-        <v>86366.45014302197</v>
+        <v>86366.45014302198</v>
       </c>
       <c r="I5" t="n">
-        <v>86366.45014302197</v>
+        <v>86366.45014302198</v>
       </c>
       <c r="J5" t="n">
         <v>94688.10334900588</v>
       </c>
       <c r="K5" t="n">
-        <v>94688.10334900588</v>
+        <v>94688.10334900583</v>
       </c>
       <c r="L5" t="n">
-        <v>94688.10334900588</v>
+        <v>94688.10334900583</v>
       </c>
       <c r="M5" t="n">
-        <v>94688.10334900589</v>
+        <v>94688.10334900586</v>
       </c>
       <c r="N5" t="n">
-        <v>94688.10334900589</v>
+        <v>94688.10334900586</v>
       </c>
       <c r="O5" t="n">
-        <v>94688.10334900589</v>
+        <v>94688.10334900586</v>
       </c>
       <c r="P5" t="n">
-        <v>94688.10334900589</v>
+        <v>94688.10334900586</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296505.7137988508</v>
+        <v>296505.7137988509</v>
       </c>
       <c r="C6" t="n">
-        <v>377275.1453303987</v>
+        <v>377275.1453303983</v>
       </c>
       <c r="D6" t="n">
         <v>377275.1453303984</v>
       </c>
       <c r="E6" t="n">
-        <v>-454321.0936537022</v>
+        <v>-454321.0936537028</v>
       </c>
       <c r="F6" t="n">
-        <v>608395.5066659449</v>
+        <v>608395.5066659454</v>
       </c>
       <c r="G6" t="n">
         <v>608395.5066659454</v>
       </c>
       <c r="H6" t="n">
-        <v>608395.5066659439</v>
+        <v>608395.5066659454</v>
       </c>
       <c r="I6" t="n">
-        <v>608395.5066659452</v>
+        <v>608395.5066659446</v>
       </c>
       <c r="J6" t="n">
-        <v>491789.4987159921</v>
+        <v>491000.8304955823</v>
       </c>
       <c r="K6" t="n">
-        <v>610606.9093064793</v>
+        <v>609818.2410860695</v>
       </c>
       <c r="L6" t="n">
-        <v>610606.9093064793</v>
+        <v>609818.2410860694</v>
       </c>
       <c r="M6" t="n">
-        <v>424108.2037845225</v>
+        <v>423319.5355641122</v>
       </c>
       <c r="N6" t="n">
-        <v>610606.9093064793</v>
+        <v>609818.2410860693</v>
       </c>
       <c r="O6" t="n">
-        <v>610606.9093064792</v>
+        <v>609818.2410860693</v>
       </c>
       <c r="P6" t="n">
-        <v>610606.909306479</v>
+        <v>609818.2410860693</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776584</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>989.3919454239295</v>
+        <v>989.3919454239298</v>
       </c>
       <c r="F4" t="n">
-        <v>989.3919454239295</v>
+        <v>989.3919454239298</v>
       </c>
       <c r="G4" t="n">
-        <v>989.3919454239295</v>
+        <v>989.3919454239298</v>
       </c>
       <c r="H4" t="n">
-        <v>989.3919454239295</v>
+        <v>989.3919454239298</v>
       </c>
       <c r="I4" t="n">
-        <v>989.3919454239295</v>
+        <v>989.3919454239298</v>
       </c>
       <c r="J4" t="n">
         <v>1202.496270351622</v>
       </c>
       <c r="K4" t="n">
-        <v>1202.496270351622</v>
+        <v>1202.496270351621</v>
       </c>
       <c r="L4" t="n">
-        <v>1202.496270351622</v>
+        <v>1202.496270351621</v>
       </c>
       <c r="M4" t="n">
         <v>1202.496270351622</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776584</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>748.3776565462705</v>
+        <v>748.3776565462707</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>454.1186138053514</v>
+        <v>454.1186138053505</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>748.3776565462707</v>
+        <v>748.3776565462712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776584</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>748.3776565462705</v>
+        <v>748.3776565462707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>165.8617568640531</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>373.5712820517043</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>142.7188996964404</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>120.0043563196803</v>
+        <v>60.50207587875227</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,25 +27621,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>169.3007675838949</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>366.4657846212724</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11.54007894861604</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>91.89484783226429</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>133.416483154574</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.85345576880712</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>126.6603853579262</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>50.42519637105573</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="K13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="L13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="M13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="N13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="O13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="P13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="R13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="S13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="K16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="L16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="M16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="N16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="O16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="P16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="R16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="S16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y16" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.1343509452924</v>
       </c>
       <c r="E17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="K19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="L19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="M19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="N19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="O19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="P19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="R19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="S19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G20" t="n">
-        <v>55.13435094529228</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.1343509452921</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="K22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="L22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="M22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="N22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="O22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="P22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="R22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="S22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I23" t="n">
-        <v>55.13435094529231</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="C25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="D25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="E25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="F25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="G25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="H25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="I25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="J25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="K25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="L25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="M25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="N25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="O25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="P25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="R25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="S25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="T25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="U25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="V25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="W25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="X25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.13435094529255</v>
+        <v>55.13435094529252</v>
       </c>
     </row>
     <row r="26">
@@ -29511,10 +29511,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29562,10 +29562,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.453972769467475e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.063298011819522e-14</v>
+        <v>6.06329801181952e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>6.063298011819522e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
     </row>
     <row r="42">
@@ -34704,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>181.8947995804606</v>
       </c>
       <c r="M2" t="n">
         <v>219.1673002655598</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.08295377589857</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776584</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776584</v>
       </c>
       <c r="P3" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="O6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>91.0829537758999</v>
-      </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35415,25 +35415,25 @@
         <v>286.0352886787585</v>
       </c>
       <c r="L11" t="n">
-        <v>809.7877900540457</v>
+        <v>392.1265755035952</v>
       </c>
       <c r="M11" t="n">
         <v>468.3057007016877</v>
       </c>
       <c r="N11" t="n">
-        <v>917.8907134534331</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O11" t="n">
-        <v>527.1738042578556</v>
+        <v>782.351824515921</v>
       </c>
       <c r="P11" t="n">
-        <v>340.9311719575402</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q11" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R11" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K12" t="n">
         <v>205.9251118823923</v>
       </c>
       <c r="L12" t="n">
-        <v>660.109642579767</v>
+        <v>323.6821712743528</v>
       </c>
       <c r="M12" t="n">
         <v>397.2742188686631</v>
@@ -35509,10 +35509,10 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q12" t="n">
-        <v>131.7671923190329</v>
+        <v>310.0844981558282</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K13" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L13" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M13" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N13" t="n">
         <v>372.3860636832381</v>
@@ -35585,7 +35585,7 @@
         <v>331.9895800591974</v>
       </c>
       <c r="P13" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q13" t="n">
         <v>118.4230346135851</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>156.6543486311625</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K14" t="n">
-        <v>286.0352886787585</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L14" t="n">
         <v>392.1265755035952</v>
       </c>
       <c r="M14" t="n">
-        <v>917.8192341945202</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N14" t="n">
-        <v>917.8907134534331</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O14" t="n">
-        <v>440.2939125182768</v>
+        <v>670.521402604661</v>
       </c>
       <c r="P14" t="n">
-        <v>340.9311719575402</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q14" t="n">
-        <v>419.6807623763432</v>
+        <v>207.3657717164386</v>
       </c>
       <c r="R14" t="n">
-        <v>46.16034224374762</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K15" t="n">
-        <v>205.9251118823923</v>
+        <v>384.2424177191876</v>
       </c>
       <c r="L15" t="n">
-        <v>660.109642579767</v>
+        <v>323.6821712743528</v>
       </c>
       <c r="M15" t="n">
         <v>397.2742188686631</v>
@@ -35749,7 +35749,7 @@
         <v>131.7671923190329</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K16" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L16" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M16" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N16" t="n">
         <v>372.3860636832381</v>
@@ -35822,7 +35822,7 @@
         <v>331.9895800591974</v>
       </c>
       <c r="P16" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q16" t="n">
         <v>118.4230346135851</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>156.6543486311625</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K17" t="n">
-        <v>286.0352886787585</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L17" t="n">
-        <v>392.1265755035952</v>
+        <v>410.0390749300745</v>
       </c>
       <c r="M17" t="n">
-        <v>917.8192341945202</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N17" t="n">
-        <v>917.8907134534331</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O17" t="n">
-        <v>452.1031098276424</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P17" t="n">
-        <v>340.9311719575402</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q17" t="n">
         <v>419.6807623763432</v>
       </c>
       <c r="R17" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K18" t="n">
         <v>205.9251118823923</v>
@@ -35977,7 +35977,7 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O18" t="n">
-        <v>700.3446332853439</v>
+        <v>542.2344678167249</v>
       </c>
       <c r="P18" t="n">
         <v>272.5472562519445</v>
@@ -35986,7 +35986,7 @@
         <v>131.7671923190329</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K19" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L19" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M19" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N19" t="n">
         <v>372.3860636832381</v>
@@ -36059,7 +36059,7 @@
         <v>331.9895800591974</v>
       </c>
       <c r="P19" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q19" t="n">
         <v>118.4230346135851</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>156.6543486311625</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K20" t="n">
-        <v>610.1807012499232</v>
+        <v>512.5449844359011</v>
       </c>
       <c r="L20" t="n">
-        <v>476.3669193722898</v>
+        <v>392.1265755035952</v>
       </c>
       <c r="M20" t="n">
         <v>468.3057007016877</v>
       </c>
       <c r="N20" t="n">
-        <v>480.543789041449</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O20" t="n">
-        <v>821.0940937810221</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P20" t="n">
-        <v>662.7298801290228</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R20" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K21" t="n">
-        <v>332.2752954519573</v>
+        <v>384.2424177191876</v>
       </c>
       <c r="L21" t="n">
         <v>323.6821712743528</v>
@@ -36220,10 +36220,10 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q21" t="n">
-        <v>341.844480054882</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K22" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L22" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M22" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N22" t="n">
         <v>372.3860636832381</v>
@@ -36296,7 +36296,7 @@
         <v>331.9895800591974</v>
       </c>
       <c r="P22" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q22" t="n">
         <v>118.4230346135851</v>
@@ -36360,25 +36360,25 @@
         <v>325.7509638032362</v>
       </c>
       <c r="K23" t="n">
-        <v>286.0352886787585</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L23" t="n">
-        <v>809.7877900540457</v>
+        <v>506.805849349478</v>
       </c>
       <c r="M23" t="n">
         <v>468.3057007016877</v>
       </c>
       <c r="N23" t="n">
-        <v>480.543789041449</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O23" t="n">
-        <v>686.4893181369525</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P23" t="n">
         <v>340.9311719575402</v>
       </c>
       <c r="Q23" t="n">
-        <v>419.6807623763432</v>
+        <v>207.3657717164386</v>
       </c>
       <c r="R23" t="n">
         <v>100.0675648073646</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K24" t="n">
-        <v>470.3903488949709</v>
+        <v>206.1842601115485</v>
       </c>
       <c r="L24" t="n">
         <v>323.6821712743528</v>
@@ -36457,10 +36457,10 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q24" t="n">
-        <v>171.7102964836585</v>
+        <v>341.844480054882</v>
       </c>
       <c r="R24" t="n">
-        <v>32.01913012821008</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K25" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L25" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M25" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N25" t="n">
         <v>372.3860636832381</v>
@@ -36533,7 +36533,7 @@
         <v>331.9895800591974</v>
       </c>
       <c r="P25" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q25" t="n">
         <v>118.4230346135851</v>
@@ -36597,28 +36597,28 @@
         <v>325.7509638032362</v>
       </c>
       <c r="K26" t="n">
-        <v>610.1807012499232</v>
+        <v>286.0352886787585</v>
       </c>
       <c r="L26" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M26" t="n">
-        <v>468.3057007016877</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N26" t="n">
         <v>917.8907134534331</v>
       </c>
       <c r="O26" t="n">
-        <v>821.0940937810221</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P26" t="n">
-        <v>566.672493819324</v>
+        <v>544.0731436275141</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R26" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K27" t="n">
-        <v>332.2752954519576</v>
+        <v>205.9251118823923</v>
       </c>
       <c r="L27" t="n">
         <v>323.6821712743528</v>
@@ -36694,10 +36694,10 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q27" t="n">
-        <v>341.844480054882</v>
+        <v>310.0844981558286</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>610.1807012499232</v>
       </c>
       <c r="L29" t="n">
-        <v>489.2488040035936</v>
+        <v>809.7877900540457</v>
       </c>
       <c r="M29" t="n">
-        <v>917.8192341945202</v>
+        <v>531.5638282710825</v>
       </c>
       <c r="N29" t="n">
         <v>480.543789041449</v>
@@ -36855,7 +36855,7 @@
         <v>419.6807623763432</v>
       </c>
       <c r="R29" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>74.29433063580987</v>
+        <v>168.6253840771651</v>
       </c>
       <c r="K30" t="n">
         <v>205.9251118823923</v>
@@ -36919,7 +36919,7 @@
         <v>323.6821712743528</v>
       </c>
       <c r="M30" t="n">
-        <v>701.6825600458675</v>
+        <v>397.2742188686631</v>
       </c>
       <c r="N30" t="n">
         <v>422.3430720993675</v>
@@ -36931,7 +36931,7 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q30" t="n">
-        <v>131.7671923190329</v>
+        <v>341.844480054882</v>
       </c>
       <c r="R30" t="n">
         <v>32.01913012821008</v>
@@ -37071,13 +37071,13 @@
         <v>156.6543486311625</v>
       </c>
       <c r="K32" t="n">
-        <v>610.1807012499232</v>
+        <v>555.505104790946</v>
       </c>
       <c r="L32" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M32" t="n">
-        <v>541.3449295640625</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N32" t="n">
         <v>917.8907134534331</v>
@@ -37086,7 +37086,7 @@
         <v>821.0940937810221</v>
       </c>
       <c r="P32" t="n">
-        <v>662.7298801290228</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q32" t="n">
         <v>207.3657717164386</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K33" t="n">
-        <v>205.9251118823923</v>
+        <v>384.2424177191879</v>
       </c>
       <c r="L33" t="n">
         <v>323.6821712743528</v>
@@ -37165,13 +37165,13 @@
         <v>363.9171619799298</v>
       </c>
       <c r="P33" t="n">
-        <v>398.8974398215098</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q33" t="n">
-        <v>341.844480054882</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>156.6543486311625</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K35" t="n">
-        <v>286.0352886787585</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L35" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M35" t="n">
-        <v>653.1753514753234</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N35" t="n">
-        <v>917.8907134534331</v>
+        <v>543.8019166108456</v>
       </c>
       <c r="O35" t="n">
         <v>821.0940937810221</v>
@@ -37329,7 +37329,7 @@
         <v>419.6807623763432</v>
       </c>
       <c r="R35" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K36" t="n">
-        <v>205.9251118823923</v>
+        <v>384.2424177191879</v>
       </c>
       <c r="L36" t="n">
         <v>323.6821712743528</v>
@@ -37402,13 +37402,13 @@
         <v>363.9171619799298</v>
       </c>
       <c r="P36" t="n">
-        <v>398.8974398215098</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q36" t="n">
-        <v>341.844480054882</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>325.7509638032362</v>
+        <v>156.6543486311625</v>
       </c>
       <c r="K38" t="n">
-        <v>610.1807012499232</v>
+        <v>286.0352886787585</v>
       </c>
       <c r="L38" t="n">
-        <v>501.4154130844428</v>
+        <v>809.7877900540457</v>
       </c>
       <c r="M38" t="n">
-        <v>468.3057007016877</v>
+        <v>587.4589316023386</v>
       </c>
       <c r="N38" t="n">
         <v>917.8907134534331</v>
@@ -37566,7 +37566,7 @@
         <v>419.6807623763432</v>
       </c>
       <c r="R38" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K39" t="n">
-        <v>205.9251118823923</v>
+        <v>384.2424177191879</v>
       </c>
       <c r="L39" t="n">
-        <v>628.0905124515571</v>
+        <v>323.6821712743528</v>
       </c>
       <c r="M39" t="n">
         <v>397.2742188686631</v>
@@ -37788,22 +37788,22 @@
         <v>809.7877900540457</v>
       </c>
       <c r="M41" t="n">
-        <v>917.8192341945202</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N41" t="n">
-        <v>480.543789041449</v>
+        <v>756.1169072707504</v>
       </c>
       <c r="O41" t="n">
         <v>821.0940937810221</v>
       </c>
       <c r="P41" t="n">
-        <v>554.5058847384769</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q41" t="n">
         <v>207.3657717164386</v>
       </c>
       <c r="R41" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>205.9251118823923</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6821712743528</v>
+        <v>501.9994771111483</v>
       </c>
       <c r="M42" t="n">
         <v>397.2742188686631</v>
@@ -37879,10 +37879,10 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q42" t="n">
-        <v>341.844480054882</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R42" t="n">
-        <v>0.259148229156151</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>325.7509638032362</v>
       </c>
       <c r="K44" t="n">
-        <v>286.0352886787585</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L44" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M44" t="n">
-        <v>917.8192341945202</v>
+        <v>531.5638282710844</v>
       </c>
       <c r="N44" t="n">
-        <v>917.8907134534331</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O44" t="n">
-        <v>709.1523040612344</v>
+        <v>821.0940937810221</v>
       </c>
       <c r="P44" t="n">
-        <v>340.9311719575402</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q44" t="n">
         <v>419.6807623763432</v>
       </c>
       <c r="R44" t="n">
-        <v>34.35114493438218</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>74.29433063580987</v>
+        <v>200.3853659762187</v>
       </c>
       <c r="K45" t="n">
-        <v>205.9251118823923</v>
+        <v>384.2424177191879</v>
       </c>
       <c r="L45" t="n">
         <v>323.6821712743528</v>
@@ -38107,7 +38107,7 @@
         <v>397.2742188686631</v>
       </c>
       <c r="N45" t="n">
-        <v>548.6932556689329</v>
+        <v>422.3430720993675</v>
       </c>
       <c r="O45" t="n">
         <v>363.9171619799298</v>
@@ -38116,10 +38116,10 @@
         <v>272.5472562519445</v>
       </c>
       <c r="Q45" t="n">
-        <v>341.844480054882</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>32.01913012821008</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
